--- a/site/workbook.xlsx
+++ b/site/workbook.xlsx
@@ -712,9 +712,6 @@
     <t>Sequence of DNA composing a &lt;Repeat&gt;[Dropout]&lt;Repeat&gt; in the 5'-&gt;3' direction:</t>
   </si>
   <si>
-    <t>Length of the repeat region in base pairs:</t>
-  </si>
-  <si>
     <t>If G is 2</t>
   </si>
   <si>
@@ -920,6 +917,9 @@
   </si>
   <si>
     <t>GAAGAC FFFFFF</t>
+  </si>
+  <si>
+    <t>Number of acceptable matches between overhangs:</t>
   </si>
 </sst>
 </file>
@@ -3284,7 +3284,7 @@
   <dimension ref="A1:AW74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="H12" sqref="H12:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3358,7 +3358,7 @@
       <c r="B5" s="120"/>
       <c r="C5" s="116"/>
       <c r="D5" s="179" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E5" s="180"/>
       <c r="F5" s="180"/>
@@ -3368,7 +3368,7 @@
       <c r="J5" s="122"/>
       <c r="K5" s="116"/>
       <c r="L5" s="108" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M5" s="182"/>
       <c r="N5" s="182"/>
@@ -3384,7 +3384,7 @@
       <c r="J6" s="122"/>
       <c r="K6" s="116"/>
       <c r="L6" s="108" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
@@ -3394,13 +3394,13 @@
         <v>34</v>
       </c>
       <c r="D7" s="163" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E7" s="164"/>
       <c r="F7" s="164"/>
       <c r="G7" s="166"/>
       <c r="H7" s="170" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I7" s="171"/>
       <c r="J7" s="122"/>
@@ -3476,13 +3476,13 @@
       <c r="B12" s="120"/>
       <c r="C12" s="123"/>
       <c r="D12" s="163" t="s">
-        <v>178</v>
+        <v>247</v>
       </c>
       <c r="E12" s="164"/>
       <c r="F12" s="164"/>
       <c r="G12" s="165"/>
       <c r="H12" s="170">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I12" s="171"/>
       <c r="J12" s="122"/>
@@ -3502,13 +3502,13 @@
         <v>37</v>
       </c>
       <c r="D14" s="163" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E14" s="164"/>
       <c r="F14" s="164"/>
       <c r="G14" s="164"/>
       <c r="H14" s="161" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I14" s="162"/>
       <c r="J14" s="122"/>
@@ -3753,7 +3753,7 @@
         <v>43</v>
       </c>
       <c r="E31" s="167" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F31" s="168"/>
       <c r="G31" s="168"/>
@@ -3773,7 +3773,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="142" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F32" s="144"/>
       <c r="G32" s="144"/>
@@ -3789,7 +3789,7 @@
         <v>2</v>
       </c>
       <c r="E33" s="142" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F33" s="147"/>
       <c r="G33" s="147"/>
@@ -3805,7 +3805,7 @@
         <v>3</v>
       </c>
       <c r="E34" s="142" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F34" s="147"/>
       <c r="G34" s="147"/>
@@ -4055,7 +4055,7 @@
       <c r="C50" s="153"/>
       <c r="D50" s="153"/>
       <c r="E50" s="186" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F50" s="187"/>
       <c r="G50" s="187"/>
@@ -4133,13 +4133,13 @@
         <v>1</v>
       </c>
       <c r="E52" s="142" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F52" s="142" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G52" s="142" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H52" s="142"/>
       <c r="I52" s="142"/>
@@ -4165,13 +4165,13 @@
         <v>2</v>
       </c>
       <c r="E53" s="142" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F53" s="142" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G53" s="142" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H53" s="142"/>
       <c r="I53" s="142"/>
@@ -4196,13 +4196,13 @@
         <v>3</v>
       </c>
       <c r="E54" s="142" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F54" s="142" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G54" s="142" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H54" s="142"/>
       <c r="I54" s="142"/>
@@ -4227,13 +4227,13 @@
         <v>4</v>
       </c>
       <c r="E55" s="142" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F55" s="142" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G55" s="142" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H55" s="142"/>
       <c r="I55" s="142"/>
@@ -4577,7 +4577,7 @@
       <c r="A69" s="107"/>
       <c r="B69" s="120"/>
       <c r="D69" s="135" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E69" s="163" t="s">
         <v>49</v>
@@ -4607,7 +4607,7 @@
       <c r="A71" s="107"/>
       <c r="B71" s="120"/>
       <c r="D71" s="135" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E71" s="158" t="s">
         <v>98</v>
@@ -4881,14 +4881,14 @@
         <v>102</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E6" s="61"/>
       <c r="F6" s="73" t="s">
         <v>102</v>
       </c>
       <c r="G6" s="74" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H6" s="85"/>
       <c r="I6" s="56"/>
@@ -4902,14 +4902,14 @@
         <v>104</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E7" s="61"/>
       <c r="F7" s="62" t="s">
         <v>104</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H7" s="85"/>
       <c r="I7" s="56"/>
@@ -4923,14 +4923,14 @@
         <v>106</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E8" s="61"/>
       <c r="F8" s="62" t="s">
         <v>106</v>
       </c>
       <c r="G8" s="63" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H8" s="85"/>
       <c r="I8" s="56"/>
@@ -4944,14 +4944,14 @@
         <v>108</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E9" s="61"/>
       <c r="F9" s="62" t="s">
         <v>108</v>
       </c>
       <c r="G9" s="63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H9" s="85"/>
       <c r="I9" s="56"/>
@@ -4965,14 +4965,14 @@
         <v>110</v>
       </c>
       <c r="D10" s="63" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E10" s="61"/>
       <c r="F10" s="62" t="s">
         <v>110</v>
       </c>
       <c r="G10" s="63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H10" s="85"/>
       <c r="I10" s="56"/>
@@ -4986,14 +4986,14 @@
         <v>112</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E11" s="61"/>
       <c r="F11" s="62" t="s">
         <v>112</v>
       </c>
       <c r="G11" s="63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H11" s="85"/>
       <c r="I11" s="56"/>
@@ -5007,14 +5007,14 @@
         <v>114</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E12" s="61"/>
       <c r="F12" s="62" t="s">
         <v>114</v>
       </c>
       <c r="G12" s="63" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H12" s="85"/>
       <c r="I12" s="56"/>
@@ -5028,14 +5028,14 @@
         <v>116</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E13" s="61"/>
       <c r="F13" s="62" t="s">
         <v>116</v>
       </c>
       <c r="G13" s="63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H13" s="85"/>
       <c r="I13" s="56"/>
@@ -5049,14 +5049,14 @@
         <v>118</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E14" s="61"/>
       <c r="F14" s="62" t="s">
         <v>118</v>
       </c>
       <c r="G14" s="63" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H14" s="85"/>
       <c r="I14" s="56"/>
@@ -5070,14 +5070,14 @@
         <v>120</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E15" s="61"/>
       <c r="F15" s="62" t="s">
         <v>120</v>
       </c>
       <c r="G15" s="63" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H15" s="85"/>
       <c r="I15" s="56"/>
@@ -5091,14 +5091,14 @@
         <v>122</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E16" s="61"/>
       <c r="F16" s="62" t="s">
         <v>122</v>
       </c>
       <c r="G16" s="63" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H16" s="85"/>
       <c r="I16" s="56"/>
@@ -5112,14 +5112,14 @@
         <v>124</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E17" s="61"/>
       <c r="F17" s="62" t="s">
         <v>124</v>
       </c>
       <c r="G17" s="63" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H17" s="85"/>
       <c r="I17" s="56"/>
@@ -5133,14 +5133,14 @@
         <v>126</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E18" s="61"/>
       <c r="F18" s="62" t="s">
         <v>126</v>
       </c>
       <c r="G18" s="63" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H18" s="85"/>
       <c r="I18" s="56"/>
@@ -5154,14 +5154,14 @@
         <v>128</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E19" s="61"/>
       <c r="F19" s="62" t="s">
         <v>128</v>
       </c>
       <c r="G19" s="63" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H19" s="85"/>
       <c r="I19" s="56"/>
@@ -5175,14 +5175,14 @@
         <v>130</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E20" s="61"/>
       <c r="F20" s="62" t="s">
         <v>130</v>
       </c>
       <c r="G20" s="63" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H20" s="85"/>
       <c r="I20" s="56"/>
@@ -5196,14 +5196,14 @@
         <v>132</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E21" s="61"/>
       <c r="F21" s="62" t="s">
         <v>132</v>
       </c>
       <c r="G21" s="63" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H21" s="85"/>
       <c r="I21" s="56"/>
@@ -5217,14 +5217,14 @@
         <v>134</v>
       </c>
       <c r="D22" s="63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E22" s="61"/>
       <c r="F22" s="62" t="s">
         <v>134</v>
       </c>
       <c r="G22" s="63" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H22" s="85"/>
       <c r="I22" s="56"/>
@@ -5238,14 +5238,14 @@
         <v>136</v>
       </c>
       <c r="D23" s="63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E23" s="61"/>
       <c r="F23" s="62" t="s">
         <v>136</v>
       </c>
       <c r="G23" s="63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H23" s="85"/>
       <c r="I23" s="56"/>
@@ -5259,14 +5259,14 @@
         <v>138</v>
       </c>
       <c r="D24" s="63" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E24" s="61"/>
       <c r="F24" s="62" t="s">
         <v>138</v>
       </c>
       <c r="G24" s="63" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H24" s="85"/>
       <c r="I24" s="56"/>
@@ -5280,14 +5280,14 @@
         <v>140</v>
       </c>
       <c r="D25" s="63" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E25" s="61"/>
       <c r="F25" s="62" t="s">
         <v>140</v>
       </c>
       <c r="G25" s="63" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H25" s="85"/>
       <c r="I25" s="56"/>
@@ -5301,14 +5301,14 @@
         <v>142</v>
       </c>
       <c r="D26" s="63" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E26" s="61"/>
       <c r="F26" s="62" t="s">
         <v>142</v>
       </c>
       <c r="G26" s="63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H26" s="85"/>
       <c r="I26" s="56"/>
@@ -5322,14 +5322,14 @@
         <v>144</v>
       </c>
       <c r="D27" s="63" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E27" s="61"/>
       <c r="F27" s="62" t="s">
         <v>144</v>
       </c>
       <c r="G27" s="63" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H27" s="85"/>
       <c r="I27" s="56"/>
@@ -5343,14 +5343,14 @@
         <v>146</v>
       </c>
       <c r="D28" s="63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E28" s="61"/>
       <c r="F28" s="62" t="s">
         <v>146</v>
       </c>
       <c r="G28" s="63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H28" s="85"/>
       <c r="I28" s="56"/>
@@ -5364,14 +5364,14 @@
         <v>148</v>
       </c>
       <c r="D29" s="63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E29" s="61"/>
       <c r="F29" s="62" t="s">
         <v>148</v>
       </c>
       <c r="G29" s="63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H29" s="85"/>
       <c r="I29" s="56"/>
